--- a/prodinfo/mea/ae/source_ae.xlsx
+++ b/prodinfo/mea/ae/source_ae.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\source\MEA\AE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\AE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF60D74-81EC-49E3-92F3-9EECFBCFC5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843F5B0F-F2B0-4648-98DA-0D12267FA5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
   <si>
     <t>country</t>
   </si>
@@ -49,35 +49,243 @@
   </si>
   <si>
     <t>阿联酋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharaf DG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAMSUNG S25+ 12+512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uae.sharafdg.com/product/samsung-galaxy-s25-ultra-5g-256gb-12gb-ram-titanium-black-ai-smartphone-middle-east-version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 Ultra 12+512</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 Ultra 12+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG Z Fold7 12+512</t>
+  </si>
+  <si>
+    <t>SAMSUNG Z Fold7 12+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG Z Fold7 16+1024</t>
+  </si>
+  <si>
+    <t>SAMSUNG A56 8+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG A56 8+128</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro Max 12+512</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro Max 12+256</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro Max 12+1024</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro Max 12+2048</t>
   </si>
   <si>
     <t>APPLE iPhone 17 Pro 12+256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uae.sharafdg.com/product/apple-iphone-17-pro-256gb-cosmic-orange-middle-east-version-with-facetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUAWEI Pura 80 Ultra 12+512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uae.sharafdg.com/product/huawei-pura-80-pro-512gb-12gb-ram-glazed-white-dual-sim-smartphone-1%E2%80%91inch-sensor-ultra-macro-telephoto-kunlun-glass-2-100%E2%80%AFw-supercharge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro 12+512</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro 12+1024</t>
+  </si>
+  <si>
+    <t>APPLE iPhone Air 8+256</t>
+  </si>
+  <si>
+    <t>APPLE iPhone Air 8+512</t>
+  </si>
+  <si>
+    <t>APPLE iPhone Air 8+1024</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 8+256</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 8+512</t>
+  </si>
+  <si>
+    <t>APPLE 11-inch iPad A16 (2025) Wi-Fi 128GB</t>
+  </si>
+  <si>
+    <t>APPLE 11-inch iPad Air M3 (2025) Wi-Fi 128GB</t>
+  </si>
+  <si>
+    <t>APPLE iPad mini (2024) Wi-Fi 128GB</t>
+  </si>
+  <si>
+    <t>APPLE 11-inch iPad Pro M5 (2025) Wi-Fi 256GB</t>
+  </si>
+  <si>
+    <t>SAMSUNG Tab A11+ Tablet – WiFi 128GB</t>
+  </si>
+  <si>
+    <t>SAMSUNG Tab A11+ Tablet – WiFi 256GB</t>
+  </si>
+  <si>
+    <t>SAMSUNG Tab A11 Tablet – WiFi 64GB 4GB RAM 8.7inch</t>
+  </si>
+  <si>
+    <t>SAMSUNG Tab A11 Tablet – WiFi 128GB 8GB RAM 8.7inch</t>
+  </si>
+  <si>
+    <t>HONOR Pad 10 Papermatte Tablet – WiFi 256GB 8GB 12.1inch</t>
+  </si>
+  <si>
+    <t>HONOR Pad 10 Tablet – WiFi 256GB 8GB RAM 12.1inch</t>
+  </si>
+  <si>
+    <t>HONOR Pad 9 HEY2-W09 Tablet – WiFi 256GB 8GB 12.1inch</t>
+  </si>
+  <si>
+    <t>HONOR Pad X9a Tablet – WiFi 128GB 8GB RAM 11.5inch</t>
+  </si>
+  <si>
+    <t>HONOR Pad X8A 128GB 4GB</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Series 11 GPS, 46m</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Series 11 GPS, 42mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 GPS, 44mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 GPS, 40mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple AirPods Pro 3 (2025)</t>
+  </si>
+  <si>
+    <t>APPLE Apple AirPods 4 with Active Noise Cancellation</t>
+  </si>
+  <si>
+    <t>APPLE Apple AirPods 4</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-s25-ultra-5g-512gb-12gb-ram-titanium-black-ai-smartphone-middle-east-version/?promo=3728673</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-s25-ultra-5g-256gb-12gb-ram-titanium-black-ai-smartphone-middle-east-version/?promo=3728339</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-z-fold7-5g-512gb-12gb-ram-jet-black-ai-smartphone-middle-east-version/?promo=3728749</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-z-fold7-5g-256gb-12gb-ram-silver-shadow-ai-smartphone-middle-east-version/?promo=3728744</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-z-fold7-5g-1tb-16gb-ram-jet-black-ai-smartphone-middle-east-version/?promo=3633969</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-a56-5g-256gb-8gb-ram-awesome-graphite-smartphone/?promo=3728730</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-a56-5g-128gb-8gb-ram-awesome-graphite-smartphone/?promo=3728726</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-pro-max-512gb-cosmic-orange-middle-east-version-with-facetime/?promo=3647753</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-pro-max-256gb-cosmic-orange-middle-east-version-with-facetime/?promo=3736429</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-pro-max-1tb-cosmic-orange-middle-east-version-with-facetime/?promo=3647755</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-pro-max-2tb-cosmic-orange-middle-east-version-with-facetime/?promo=3647762</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-pro-256gb-deep-blue-middle-east-version-with-facetime/?promo=3736428</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-pro-512gb-cosmic-orange-middle-east-version-with-facetime/?promo=3647745</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-pro-1tb-cosmic-orange-middle-east-version-with-facetime/?promo=3647726</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-air-256gb-sky-blue-middle-east-version-with-facetime/?promo=3736434</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-air-512gb-sky-blue-middle-east-version-with-facetime/?promo=3736438</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-air-1tb-sky-blue-middle-east-version-with-facetime/?promo=3736441</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-256gb-black-middle-east-version-with-facetime/?promo=3647735</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-iphone-17-512gb-white-middle-east-version-with-facetime/?promo=3647739</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/11-inch-ipad-a16-2025-wi-fi-128gb-blue-middle-east-version-with-facetime/?promo=3731843</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/11-inch-ipad-air-m3-2025-wi-fi-128gb-space-grey-middle-east-version-with-facetime/?promo=3737475</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/ipad-mini-2024-wi-fi-128gb-starlight/?promo=3731628</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/11-inch-ipad-pro-m5-2025-wi-fi-256gb-with-standard-glass-space-black-with-facetime-middle-east-version/?promo=3675553</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-a11-smx230nzsamea-128-6-w-11-sl/?promo=3694649</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-a11-smx230nzaemea-256-8-w-11-gr/?promo=3694651</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-tab-a11-tablet-wifi-64gb-4gb-ram-8-7inch-silver-smx133nzsamea/?promo=3651779</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/samsung-galaxy-tab-a11-tablet-wifi-128gb-8gb-ram-8-7inch-silver-smx133nzsemea/?promo=3651781</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/honor-pad-10-papermatte-tablet-wifi-256gb-8gb-ram-12-1inch-grey-pencil-hey3-w00/?promo=3657985</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/honor-pad-10-tablet-wifi-256gb-8gb-ram-12-1inch-gray-hey-3w00-pencil/?promo=3581339</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/honor-pad-9-hey2-w09-tablet-wifi-256gb-8gb-12-1inch-space-grey-pencil/?promo=3733958</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/honor-pad-x9a-tablet-wifi-128gb-8gb-ram-11-5inch-grey-cover/?promo=3731995</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/honor-pad-x8a-ndl-w09-tablet-wifi-128gb-4gb-11inch-space-grey-inbox-flip-cover/?promo=3329004</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-watch-series-11-gps-46mm-jet-black-aluminum-case-with-black-sport-band-m-l/?promo=3646774</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-watch-series-11-gps-42mm-jet-black-aluminum-case-with-black-sport-band-s-m/?promo=3646766</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-watch-se-3-gps-44mm-starlight-aluminum-case-with-starlight-sport-band-m-l/?promo=3646754</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-watch-se-3-gps-40mm-starlight-aluminum-case-with-starlight-sport-band-s-m/?promo=3646749</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-airpods-pro-3-2025/?promo=3646836</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-airpods-4-with-active-noise-cancellation/?promo=3711558</t>
+  </si>
+  <si>
+    <t>https://uae.sharafdg.com/product/apple-airpods-4/?promo=3711557</t>
   </si>
 </sst>
 </file>
@@ -466,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -504,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,20 +737,519 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{617CDD6A-D30E-47E4-AE22-F95D58951F3A}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{C04475DD-BFA7-4D09-87C7-95A8EDBBC0E8}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{C4B2EBA4-A934-43BB-A0AE-9295EEBE8BBC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>